--- a/sessions/data/Part_I/SIAF/districts/ MUNICIPALIDAD DISTRITAL DE ASUNCION/ MUNICIPALIDAD DISTRITAL DE ASUNCION.xlsx
+++ b/sessions/data/Part_I/SIAF/districts/ MUNICIPALIDAD DISTRITAL DE ASUNCION/ MUNICIPALIDAD DISTRITAL DE ASUNCION.xlsx
@@ -527,7 +527,7 @@
         <v>159780</v>
       </c>
       <c r="D3" t="n">
-        <v>144255</v>
+        <v>153363</v>
       </c>
       <c r="E3" t="n">
         <v>141890</v>
@@ -545,7 +545,7 @@
         <v>141890</v>
       </c>
       <c r="J3" t="n">
-        <v>98.40000000000001</v>
+        <v>92.5</v>
       </c>
     </row>
     <row r="4">
@@ -561,7 +561,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>24708</v>
+        <v>15600</v>
       </c>
       <c r="E4" t="n">
         <v>15600</v>
@@ -579,7 +579,7 @@
         <v>15600</v>
       </c>
       <c r="J4" t="n">
-        <v>63.1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5">
